--- a/documentation/template/system-list.xlsx
+++ b/documentation/template/system-list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDE Plugins Update Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APM Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,11 +122,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L4 Virtual IP (Web Server)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Management Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 모델 메타 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타 데이터 관리 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven Repository (i.e: Nexus, Archiva, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse IDE 업데이트 서버 (i.e: Apache HTTPD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 모니터링 툴 (i.e: Jenniffer, InterMax, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백업 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자 전송 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리 서버 (i.e: Redmine, OpenPMS, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 관리 서버 (i.e: TestLink, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형상 관리 서버 (i.e: Subversion, Git, Dimensions, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 빌드 서버 (i.e: Jenkins, Hudson, …)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크 공유 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 인증 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 어플리케이션 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fax Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse Plugins Update Server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,324 +664,402 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
